--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.124007838561</v>
+        <v>1.825549</v>
       </c>
       <c r="H2">
-        <v>1.124007838561</v>
+        <v>5.476647</v>
       </c>
       <c r="I2">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="J2">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>69.6548282658682</v>
+        <v>19.86261233333333</v>
       </c>
       <c r="N2">
-        <v>69.6548282658682</v>
+        <v>59.587837</v>
       </c>
       <c r="O2">
-        <v>0.7913823010656408</v>
+        <v>0.1710751304955294</v>
       </c>
       <c r="P2">
-        <v>0.7913823010656408</v>
+        <v>0.1710751304955294</v>
       </c>
       <c r="Q2">
-        <v>78.29257296445617</v>
+        <v>36.26017208250433</v>
       </c>
       <c r="R2">
-        <v>78.29257296445617</v>
+        <v>326.341548742539</v>
       </c>
       <c r="S2">
-        <v>0.02537146312619793</v>
+        <v>0.008035312325912541</v>
       </c>
       <c r="T2">
-        <v>0.02537146312619793</v>
+        <v>0.008035312325912541</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.124007838561</v>
+        <v>1.825549</v>
       </c>
       <c r="H3">
-        <v>1.124007838561</v>
+        <v>5.476647</v>
       </c>
       <c r="I3">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="J3">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.3618334311069</v>
+        <v>69.67747766666666</v>
       </c>
       <c r="N3">
-        <v>18.3618334311069</v>
+        <v>209.032433</v>
       </c>
       <c r="O3">
-        <v>0.2086176989343592</v>
+        <v>0.6001266794307873</v>
       </c>
       <c r="P3">
-        <v>0.2086176989343592</v>
+        <v>0.6001266794307873</v>
       </c>
       <c r="Q3">
-        <v>20.63884470691557</v>
+        <v>127.1996496769057</v>
       </c>
       <c r="R3">
-        <v>20.63884470691557</v>
+        <v>1144.796847092151</v>
       </c>
       <c r="S3">
-        <v>0.006688216616492585</v>
+        <v>0.02818764650578585</v>
       </c>
       <c r="T3">
-        <v>0.006688216616492585</v>
+        <v>0.02818764650578585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.5282722583196</v>
+        <v>1.825549</v>
       </c>
       <c r="H4">
-        <v>23.5282722583196</v>
+        <v>5.476647</v>
       </c>
       <c r="I4">
-        <v>0.6710886237824218</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="J4">
-        <v>0.6710886237824218</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.6548282658682</v>
+        <v>26.564526</v>
       </c>
       <c r="N4">
-        <v>69.6548282658682</v>
+        <v>79.693578</v>
       </c>
       <c r="O4">
-        <v>0.7913823010656408</v>
+        <v>0.2287981900736832</v>
       </c>
       <c r="P4">
-        <v>0.7913823010656408</v>
+        <v>0.2287981900736832</v>
       </c>
       <c r="Q4">
-        <v>1638.857763545843</v>
+        <v>48.494843874774</v>
       </c>
       <c r="R4">
-        <v>1638.857763545843</v>
+        <v>436.453594872966</v>
       </c>
       <c r="S4">
-        <v>0.5310876593079071</v>
+        <v>0.01074653522999119</v>
       </c>
       <c r="T4">
-        <v>0.5310876593079071</v>
+        <v>0.01074653522999119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.5282722583196</v>
+        <v>23.57737633333333</v>
       </c>
       <c r="H5">
-        <v>23.5282722583196</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I5">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="J5">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>18.3618334311069</v>
+        <v>19.86261233333333</v>
       </c>
       <c r="N5">
-        <v>18.3618334311069</v>
+        <v>59.587837</v>
       </c>
       <c r="O5">
-        <v>0.2086176989343592</v>
+        <v>0.1710751304955294</v>
       </c>
       <c r="P5">
-        <v>0.2086176989343592</v>
+        <v>0.1710751304955294</v>
       </c>
       <c r="Q5">
-        <v>432.0222161289979</v>
+        <v>468.3082859461081</v>
       </c>
       <c r="R5">
-        <v>432.0222161289979</v>
+        <v>4214.774573514972</v>
       </c>
       <c r="S5">
-        <v>0.1400009644745147</v>
+        <v>0.1037778677339868</v>
       </c>
       <c r="T5">
-        <v>0.1400009644745147</v>
+        <v>0.1037778677339868</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.407578503774</v>
+        <v>23.57737633333333</v>
       </c>
       <c r="H6">
-        <v>10.407578503774</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I6">
-        <v>0.2968516964748877</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="J6">
-        <v>0.2968516964748877</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.6548282658682</v>
+        <v>69.67747766666666</v>
       </c>
       <c r="N6">
-        <v>69.6548282658682</v>
+        <v>209.032433</v>
       </c>
       <c r="O6">
-        <v>0.7913823010656408</v>
+        <v>0.6001266794307873</v>
       </c>
       <c r="P6">
-        <v>0.7913823010656408</v>
+        <v>0.6001266794307873</v>
       </c>
       <c r="Q6">
-        <v>724.9380933439195</v>
+        <v>1642.812112904428</v>
       </c>
       <c r="R6">
-        <v>724.9380933439195</v>
+        <v>14785.30901613985</v>
       </c>
       <c r="S6">
-        <v>0.2349231786315358</v>
+        <v>0.3640498006998888</v>
       </c>
       <c r="T6">
-        <v>0.2349231786315358</v>
+        <v>0.3640498006998888</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.407578503774</v>
+        <v>23.57737633333333</v>
       </c>
       <c r="H7">
-        <v>10.407578503774</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I7">
-        <v>0.2968516964748877</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="J7">
-        <v>0.2968516964748877</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.3618334311069</v>
+        <v>26.564526</v>
       </c>
       <c r="N7">
-        <v>18.3618334311069</v>
+        <v>79.693578</v>
       </c>
       <c r="O7">
-        <v>0.2086176989343592</v>
+        <v>0.2287981900736832</v>
       </c>
       <c r="P7">
-        <v>0.2086176989343592</v>
+        <v>0.2287981900736832</v>
       </c>
       <c r="Q7">
-        <v>191.1022229074669</v>
+        <v>626.3218266186179</v>
       </c>
       <c r="R7">
-        <v>191.1022229074669</v>
+        <v>5636.896439567561</v>
       </c>
       <c r="S7">
-        <v>0.0619285178433519</v>
+        <v>0.13879392193632</v>
       </c>
       <c r="T7">
-        <v>0.0619285178433519</v>
+        <v>0.13879392193632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>13.46376966666667</v>
+      </c>
+      <c r="H8">
+        <v>40.391309</v>
+      </c>
+      <c r="I8">
+        <v>0.3464089155681148</v>
+      </c>
+      <c r="J8">
+        <v>0.3464089155681148</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>19.86261233333333</v>
+      </c>
+      <c r="N8">
+        <v>59.587837</v>
+      </c>
+      <c r="O8">
+        <v>0.1710751304955294</v>
+      </c>
+      <c r="P8">
+        <v>0.1710751304955294</v>
+      </c>
+      <c r="Q8">
+        <v>267.4256374342926</v>
+      </c>
+      <c r="R8">
+        <v>2406.830736908633</v>
+      </c>
+      <c r="S8">
+        <v>0.05926195043563007</v>
+      </c>
+      <c r="T8">
+        <v>0.05926195043563007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>13.46376966666667</v>
+      </c>
+      <c r="H9">
+        <v>40.391309</v>
+      </c>
+      <c r="I9">
+        <v>0.3464089155681148</v>
+      </c>
+      <c r="J9">
+        <v>0.3464089155681148</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>69.67747766666666</v>
+      </c>
+      <c r="N9">
+        <v>209.032433</v>
+      </c>
+      <c r="O9">
+        <v>0.6001266794307873</v>
+      </c>
+      <c r="P9">
+        <v>0.6001266794307873</v>
+      </c>
+      <c r="Q9">
+        <v>938.1215102583106</v>
+      </c>
+      <c r="R9">
+        <v>8443.093592324796</v>
+      </c>
+      <c r="S9">
+        <v>0.2078892322251127</v>
+      </c>
+      <c r="T9">
+        <v>0.2078892322251127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>13.46376966666667</v>
+      </c>
+      <c r="H10">
+        <v>40.391309</v>
+      </c>
+      <c r="I10">
+        <v>0.3464089155681148</v>
+      </c>
+      <c r="J10">
+        <v>0.3464089155681148</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>26.564526</v>
+      </c>
+      <c r="N10">
+        <v>79.693578</v>
+      </c>
+      <c r="O10">
+        <v>0.2287981900736832</v>
+      </c>
+      <c r="P10">
+        <v>0.2287981900736832</v>
+      </c>
+      <c r="Q10">
+        <v>357.658659368178</v>
+      </c>
+      <c r="R10">
+        <v>3218.927934313602</v>
+      </c>
+      <c r="S10">
+        <v>0.07925773290737199</v>
+      </c>
+      <c r="T10">
+        <v>0.07925773290737201</v>
       </c>
     </row>
   </sheetData>
